--- a/Sample Questions Demo.xlsx
+++ b/Sample Questions Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisBernal\Documents\Luis Bernal - Pingahla\PDQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisBernal\Documents\Luis Bernal - Pingahla\PDQA\OpenAI Assistant API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD3BD7-85D6-4801-AF88-97846938D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4C59A0-2B29-48A1-A39C-B4006F25E765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{32A1D3D8-7DB6-4891-B9DE-DFC0363A4AA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Question</t>
   </si>
@@ -44,45 +44,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>What is the total number of error hits for batch id 21?</t>
-  </si>
-  <si>
-    <t>What is the table with the most error hits?</t>
-  </si>
-  <si>
-    <t>what is the total number of error hits by column name (sort them descending)?</t>
-  </si>
-  <si>
-    <t>What is the total number of error hits for the column named "age"?</t>
-  </si>
-  <si>
-    <t>Which algorithm has the highest error rate across all batches?</t>
-  </si>
-  <si>
-    <t>What is the average number of error hits per entry for batch id 5?</t>
-  </si>
-  <si>
-    <t>How many unique column names have errors recorded in data?</t>
-  </si>
-  <si>
-    <t>Which batch id has the highest total number of error hits?</t>
-  </si>
-  <si>
-    <t>Calculate the total number of error hits for each algorithm and sort them in descending order.</t>
-  </si>
-  <si>
-    <t>What percentage of the total error hits are from the column named "salary"?</t>
-  </si>
-  <si>
-    <t>What is the median number of error hits per entry across all columns?</t>
-  </si>
-  <si>
-    <t>Identify all the column names that have more than 1000 total error hits.</t>
-  </si>
-  <si>
-    <t>What is the standard deviation of error hits for the batch id 9?</t>
-  </si>
-  <si>
     <t>Answer 1</t>
   </si>
   <si>
@@ -120,6 +81,117 @@
   </si>
   <si>
     <t>Answer 13</t>
+  </si>
+  <si>
+    <t>What is the total number of error hits for batch id 10?</t>
+  </si>
+  <si>
+    <t>Calculate the number of unique algorithms tested across all batches.</t>
+  </si>
+  <si>
+    <t>What is the average number of error hits per column for batch id 5?</t>
+  </si>
+  <si>
+    <t>List the top five columns with the highest number of error hits.</t>
+  </si>
+  <si>
+    <t>Identify the batch id with the lowest total number of error hits.</t>
+  </si>
+  <si>
+    <t>What proportion of the total error hits come from batch id 15?</t>
+  </si>
+  <si>
+    <t>Find the column with the lowest total number of error hits.</t>
+  </si>
+  <si>
+    <t>How many columns have more than 500 total error hits?</t>
+  </si>
+  <si>
+    <t>Calculate the average number of error hits across all algorithms.</t>
+  </si>
+  <si>
+    <t>What is the total number of error hits by batch id (sorted in ascending order)?</t>
+  </si>
+  <si>
+    <t>Identify the algorithm with the lowest number of error hits in batch id 20.</t>
+  </si>
+  <si>
+    <t>What is the median number of error hits per entry in batch id 25?</t>
+  </si>
+  <si>
+    <t>How many batches have a total number of error hits greater than 10,000?</t>
+  </si>
+  <si>
+    <t>List the top three algorithms with the highest average error hits per entry.</t>
+  </si>
+  <si>
+    <t>Calculate the total number of error hits for each column in batch id 30.</t>
+  </si>
+  <si>
+    <t>Identify the three columns with the lowest error hit rates.</t>
+  </si>
+  <si>
+    <t>Calculate the median total number of error hits per algorithm.</t>
+  </si>
+  <si>
+    <t>What is the interquartile range (IQR) of error hits for batch id 18?</t>
+  </si>
+  <si>
+    <t>How many columns have a total number of error hits within one standard deviation of the mean across all columns?</t>
+  </si>
+  <si>
+    <t>Answer 14</t>
+  </si>
+  <si>
+    <t>Answer 15</t>
+  </si>
+  <si>
+    <t>Answer 16</t>
+  </si>
+  <si>
+    <t>Answer 17</t>
+  </si>
+  <si>
+    <t>Answer 18</t>
+  </si>
+  <si>
+    <t>Answer 19</t>
+  </si>
+  <si>
+    <t>Answer 20</t>
+  </si>
+  <si>
+    <t>Answer 21</t>
+  </si>
+  <si>
+    <t>Answer 22</t>
+  </si>
+  <si>
+    <t>Answer 23</t>
+  </si>
+  <si>
+    <t>Answer 24</t>
+  </si>
+  <si>
+    <t>Answer 25</t>
+  </si>
+  <si>
+    <t>What is the median number of error hits per entry for the column named age?</t>
+  </si>
+  <si>
+    <t>Calculate the standard deviation of error hits for the column named salary.</t>
+  </si>
+  <si>
+    <t>What is the variance in the number of error hits for algorithm X?</t>
+  </si>
+  <si>
+    <t>What is the cumulative number of error hits across all batches for the column address?</t>
+  </si>
+  <si>
+    <t>What is the mean absolute deviation of error hits for the column named email?</t>
+  </si>
+  <si>
+    <t>What is the range of error hits for the algorithm Y?</t>
   </si>
 </sst>
 </file>
@@ -497,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650B9DC1-F544-47D4-A273-2C4827566F95}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,106 +590,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
